--- a/biology/Zoologie/Atya_gabonensis/Atya_gabonensis.xlsx
+++ b/biology/Zoologie/Atya_gabonensis/Atya_gabonensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Crevette bleue du Gabon (Atya gabonensis), ou Crevette balais, est une espèce de crevettes d'eau douce du genre Atya appartenant à la famille des Atyidae.
 Elle est apparue récemment dans les commerces aquariophiles.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette crevette a un aspect massif qui la fait ressembler à une petite écrevisse. Elle peut mesurer jusqu'à 16 centimètres.
 Elle peut être de couleur variable, du blanc au bleu vif, en passant par le gris. Cette couleur peut varier au fur et à mesure des mues et dépend certainement de différents facteurs : alimentation, qualités physico-chimiques de l'eau...
@@ -547,7 +561,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce peuple l'Afrique occidentale et la côte orientale de l'Amérique du Sud.
 </t>
@@ -578,7 +594,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Sa reproduction se fait par le passage à un stade larvaire.
 Les larves ou zoés doivent éclore dans une eau saumâtre pour avoir une chance de survie.
